--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.1535930987975007</v>
+        <v>6.15359305574475</v>
       </c>
       <c r="C2">
-        <v>18.867049996113707</v>
+        <v>18.86704999239808</v>
       </c>
       <c r="D2">
-        <v>-4.9598654425529674</v>
+        <v>-4.9598654749877085</v>
       </c>
       <c r="E2">
-        <v>16.175622659555216</v>
+        <v>16.175622638080853</v>
       </c>
       <c r="F2">
-        <v>-37.186294329435498</v>
+        <v>-37.186294337181124</v>
       </c>
       <c r="G2">
-        <v>27.760425125099914</v>
+        <v>27.760425118404271</v>
       </c>
       <c r="H2">
-        <v>14.58859198461451</v>
+        <v>14.588591957632048</v>
       </c>
       <c r="I2">
-        <v>22.729462471161867</v>
+        <v>22.729462458398302</v>
       </c>
       <c r="J2">
-        <v>24.930685376332946</v>
+        <v>24.930685351960449</v>
       </c>
       <c r="K2">
-        <v>19.91908797168432</v>
+        <v>19.919087962759448</v>
       </c>
       <c r="L2">
-        <v>27.765132754644213</v>
+        <v>27.765132728345321</v>
       </c>
       <c r="M2">
-        <v>16.458244115529965</v>
+        <v>16.458244077533436</v>
       </c>
       <c r="N2">
-        <v>25.767548251329913</v>
+        <v>25.767548210602001</v>
       </c>
       <c r="O2">
-        <v>19.728183536785025</v>
+        <v>19.728183513659985</v>
       </c>
       <c r="P2">
-        <v>14.472320523479652</v>
+        <v>14.472320505517644</v>
       </c>
       <c r="Q2">
-        <v>28.405180833791462</v>
+        <v>28.40518082700936</v>
       </c>
       <c r="R2">
-        <v>16.007746965512581</v>
+        <v>16.007746957883001</v>
       </c>
       <c r="S2">
-        <v>22.210498426443962</v>
+        <v>22.210498412145398</v>
       </c>
       <c r="T2">
-        <v>24.346895093986461</v>
+        <v>24.346895046923464</v>
       </c>
       <c r="U2">
-        <v>34.813362139952034</v>
+        <v>34.813362125656681</v>
       </c>
       <c r="V2">
-        <v>17.994621288853239</v>
+        <v>17.994621265781234</v>
       </c>
       <c r="W2">
-        <v>18.648689771847728</v>
+        <v>18.648689752016253</v>
       </c>
       <c r="X2">
-        <v>26.59412010869741</v>
+        <v>26.594120090482107</v>
       </c>
       <c r="Y2">
-        <v>23.420796420024004</v>
+        <v>23.420796380749664</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012376292967</v>
+        <v>-1.2874012619664938</v>
       </c>
       <c r="AA2">
-        <v>32.102495082354068</v>
+        <v>32.102495057411232</v>
       </c>
       <c r="AB2">
-        <v>21.513480602594029</v>
+        <v>21.513480587339245</v>
       </c>
       <c r="AC2">
-        <v>22.172702830017016</v>
+        <v>22.172702822196669</v>
       </c>
       <c r="AD2">
-        <v>14.231057814989128</v>
+        <v>14.231057806361662</v>
       </c>
       <c r="AE2">
-        <v>-2.627727030802788</v>
+        <v>-2.6277270436658284</v>
       </c>
       <c r="AF2">
-        <v>22.746106812065563</v>
+        <v>22.746106808016265</v>
       </c>
       <c r="AG2">
-        <v>20.185120878236262</v>
+        <v>20.185120854259367</v>
       </c>
       <c r="AH2">
-        <v>19.12176562127911</v>
+        <v>19.121765613333991</v>
       </c>
       <c r="AI2">
-        <v>35.628930155360081</v>
+        <v>35.628930132382152</v>
       </c>
       <c r="AJ2">
-        <v>15.15270926359733</v>
+        <v>15.152709263463606</v>
       </c>
       <c r="AK2">
-        <v>22.260694450980878</v>
+        <v>22.260694431845081</v>
       </c>
       <c r="AL2">
-        <v>26.128545640349216</v>
+        <v>26.128545616804388</v>
       </c>
       <c r="AM2">
-        <v>20.618228048307344</v>
+        <v>20.618228017260662</v>
       </c>
       <c r="AN2">
-        <v>20.960653237740701</v>
+        <v>20.960653215905126</v>
       </c>
       <c r="AO2">
-        <v>23.56683723813137</v>
+        <v>23.566837235634296</v>
       </c>
       <c r="AP2">
-        <v>26.113048387812171</v>
+        <v>26.113048373067841</v>
       </c>
       <c r="AQ2">
-        <v>21.215744011030893</v>
+        <v>21.215743989479961</v>
       </c>
       <c r="AR2">
-        <v>27.197266508307223</v>
+        <v>27.197266508440066</v>
       </c>
       <c r="AS2">
-        <v>28.417721698469165</v>
+        <v>28.417721692050804</v>
       </c>
       <c r="AT2">
-        <v>25.386010640027052</v>
+        <v>25.386010624524516</v>
       </c>
       <c r="AU2">
-        <v>23.801445646735488</v>
+        <v>23.801445639148085</v>
       </c>
       <c r="AV2">
-        <v>10.989411430072437</v>
+        <v>10.989411404720556</v>
       </c>
       <c r="AW2">
-        <v>23.348202119874713</v>
+        <v>23.348202114232151</v>
       </c>
       <c r="AX2">
-        <v>22.096951290153982</v>
+        <v>22.096951274978579</v>
       </c>
       <c r="AY2">
-        <v>28.446151728220002</v>
+        <v>28.446151713227039</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.345231093523694</v>
+        <v>15.345231066755957</v>
       </c>
       <c r="C3">
-        <v>19.85105507034126</v>
+        <v>19.851055041050984</v>
       </c>
       <c r="D3">
-        <v>29.30097434293512</v>
+        <v>29.300974301856172</v>
       </c>
       <c r="E3">
-        <v>15.596096616020247</v>
+        <v>15.596096580264089</v>
       </c>
       <c r="F3">
-        <v>9.4304539646855972</v>
+        <v>9.4304539594229766</v>
       </c>
       <c r="G3">
-        <v>23.309986992220786</v>
+        <v>23.309986968814087</v>
       </c>
       <c r="H3">
-        <v>22.262928825064733</v>
+        <v>22.262928790794689</v>
       </c>
       <c r="I3">
-        <v>24.329548873567319</v>
+        <v>24.329548866317793</v>
       </c>
       <c r="J3">
-        <v>24.072938434529959</v>
+        <v>24.072938414392752</v>
       </c>
       <c r="K3">
-        <v>26.833556802124804</v>
+        <v>26.833556774244329</v>
       </c>
       <c r="L3">
-        <v>52.902946267441394</v>
+        <v>52.902946240601807</v>
       </c>
       <c r="M3">
-        <v>17.703155150475425</v>
+        <v>17.70324072097992</v>
       </c>
       <c r="N3">
-        <v>22.410194863140021</v>
+        <v>22.410194833801768</v>
       </c>
       <c r="O3">
-        <v>13.487990908829971</v>
+        <v>13.487990892805044</v>
       </c>
       <c r="P3">
-        <v>25.383715036167644</v>
+        <v>25.383715011781192</v>
       </c>
       <c r="Q3">
-        <v>15.880739250689487</v>
+        <v>15.880739230337213</v>
       </c>
       <c r="R3">
-        <v>19.769415754165777</v>
+        <v>19.769415738787586</v>
       </c>
       <c r="S3">
-        <v>20.10305579720756</v>
+        <v>20.103055783213676</v>
       </c>
       <c r="T3">
-        <v>22.797686201633383</v>
+        <v>22.797686180236269</v>
       </c>
       <c r="U3">
-        <v>19.583150857039271</v>
+        <v>19.583150824718501</v>
       </c>
       <c r="V3">
-        <v>40.04772116615419</v>
+        <v>40.047721145283731</v>
       </c>
       <c r="W3">
-        <v>20.490517852787264</v>
+        <v>20.490517832736316</v>
       </c>
       <c r="X3">
-        <v>19.908145800884597</v>
+        <v>19.908145789608682</v>
       </c>
       <c r="Y3">
-        <v>17.497523849830571</v>
+        <v>17.497523836850036</v>
       </c>
       <c r="Z3">
-        <v>17.593339310039227</v>
+        <v>17.593339291211379</v>
       </c>
       <c r="AA3">
-        <v>27.386317835387217</v>
+        <v>27.386317816048461</v>
       </c>
       <c r="AB3">
-        <v>18.861297469179505</v>
+        <v>18.861297445896895</v>
       </c>
       <c r="AC3">
-        <v>28.50352733908997</v>
+        <v>28.503527321789107</v>
       </c>
       <c r="AD3">
-        <v>18.346840624335698</v>
+        <v>18.346840614562439</v>
       </c>
       <c r="AE3">
-        <v>23.081003163545148</v>
+        <v>23.081003159106587</v>
       </c>
       <c r="AF3">
-        <v>26.702177054926636</v>
+        <v>26.702177038481153</v>
       </c>
       <c r="AG3">
-        <v>29.281386372342126</v>
+        <v>29.281386351236989</v>
       </c>
       <c r="AH3">
-        <v>33.573600754461268</v>
+        <v>33.573600735083517</v>
       </c>
       <c r="AI3">
-        <v>24.426096824721384</v>
+        <v>24.42609680524933</v>
       </c>
       <c r="AJ3">
-        <v>30.541568308505873</v>
+        <v>30.541568271886717</v>
       </c>
       <c r="AK3">
-        <v>45.42810030740884</v>
+        <v>45.428100282903983</v>
       </c>
       <c r="AL3">
-        <v>30.57565529815713</v>
+        <v>30.575655277162639</v>
       </c>
       <c r="AM3">
-        <v>18.144613966400129</v>
+        <v>18.144613927622231</v>
       </c>
       <c r="AN3">
-        <v>12.616209829439697</v>
+        <v>12.616209819296671</v>
       </c>
       <c r="AO3">
-        <v>28.170278281741389</v>
+        <v>28.170278245696693</v>
       </c>
       <c r="AP3">
-        <v>22.088662729319651</v>
+        <v>22.088662713547762</v>
       </c>
       <c r="AQ3">
-        <v>23.407996496095848</v>
+        <v>23.407996489579716</v>
       </c>
       <c r="AR3">
-        <v>29.030669626267638</v>
+        <v>29.030669612456677</v>
       </c>
       <c r="AS3">
-        <v>21.4298326785065</v>
+        <v>21.429832661467287</v>
       </c>
       <c r="AT3">
-        <v>17.261843786864972</v>
+        <v>17.261843778721726</v>
       </c>
       <c r="AU3">
-        <v>27.191305666368294</v>
+        <v>27.191305639823725</v>
       </c>
       <c r="AV3">
-        <v>21.804859148681288</v>
+        <v>21.80485912421787</v>
       </c>
       <c r="AW3">
-        <v>21.19461788391277</v>
+        <v>21.194617871908463</v>
       </c>
       <c r="AX3">
-        <v>20.643621871756267</v>
+        <v>20.643621850864662</v>
       </c>
       <c r="AY3">
-        <v>21.004178086834997</v>
+        <v>21.004178064382074</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>6.15359305574475</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>18.86704999239808</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.9598654749877085</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.175622638080853</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-37.186294337181124</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27.760425118404271</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>14.588591957632048</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.729462458398302</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>24.930685351960449</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>19.919087962759448</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>27.765132728345321</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.458244077533436</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>25.767548210602001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>19.728183513659985</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.472320505517644</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>28.40518082700936</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>16.007746957883001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>22.210498412145398</v>
+        <v>22.210531742145406</v>
       </c>
       <c r="T2">
         <v>24.346895046923464</v>
@@ -576,147 +465,144 @@
         <v>17.994621265781234</v>
       </c>
       <c r="W2">
-        <v>18.648689752016253</v>
+        <v>18.648723082016261</v>
       </c>
       <c r="X2">
-        <v>26.594120090482107</v>
+        <v>26.594086760482099</v>
       </c>
       <c r="Y2">
         <v>23.420796380749664</v>
       </c>
       <c r="Z2">
-        <v>-1.2874012619664938</v>
+        <v>-1.2874345919665018</v>
       </c>
       <c r="AA2">
-        <v>32.102495057411232</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>21.513480587339245</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>22.172702822196669</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>14.231057806361662</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-2.6277270436658284</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>22.746106808016265</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>20.185120854259367</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>19.121765613333991</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>35.628930132382152</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>15.152709263463606</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>22.260694431845081</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>26.128545616804388</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>20.618228017260662</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>20.960653215905126</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>23.566837235634296</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.113048373067841</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>21.215743989479961</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>27.197266508440066</v>
+        <v>27.197233178440058</v>
       </c>
       <c r="AS2">
         <v>28.417721692050804</v>
       </c>
       <c r="AT2">
-        <v>25.386010624524516</v>
+        <v>25.386043954524524</v>
       </c>
       <c r="AU2">
-        <v>23.801445639148085</v>
+        <v>23.801412309148077</v>
       </c>
       <c r="AV2">
-        <v>10.989411404720556</v>
+        <v>10.989444734720564</v>
       </c>
       <c r="AW2">
-        <v>23.348202114232151</v>
+        <v>23.348168784232143</v>
       </c>
       <c r="AX2">
-        <v>22.096951274978579</v>
+        <v>22.096917944978571</v>
       </c>
       <c r="AY2">
-        <v>28.446151713227039</v>
+        <v>28.446118383227031</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.345231066755957</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>19.851055041050984</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>29.300974301856172</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.596096580264089</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.4304539594229766</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>23.309986968814087</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>22.262928790794689</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>24.329548866317793</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>24.072938414392752</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>26.833556774244329</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>52.902946240601807</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>17.70324072097992</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>22.410194833801768</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.487990892805044</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>25.383715011781192</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.880739230337213</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>19.769415738787586</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>20.103055783213676</v>
@@ -728,94 +614,94 @@
         <v>19.583150824718501</v>
       </c>
       <c r="V3">
-        <v>40.047721145283731</v>
+        <v>40.047687815283723</v>
       </c>
       <c r="W3">
-        <v>20.490517832736316</v>
+        <v>20.490484502736336</v>
       </c>
       <c r="X3">
-        <v>19.908145789608682</v>
+        <v>19.90817911960869</v>
       </c>
       <c r="Y3">
-        <v>17.497523836850036</v>
+        <v>43.527557166850045</v>
       </c>
       <c r="Z3">
-        <v>17.593339291211379</v>
+        <v>23.036705961211396</v>
       </c>
       <c r="AA3">
-        <v>27.386317816048461</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>18.861297445896895</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>28.503527321789107</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>18.346840614562439</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>23.081003159106587</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>26.702177038481153</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>29.281386351236989</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>33.573600735083517</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>24.42609680524933</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>30.541568271886717</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>45.428100282903983</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>30.575655277162639</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>18.144613927622231</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>12.616209819296671</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>28.170278245696693</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>22.088662713547762</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>23.407996489579716</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>29.030669612456677</v>
+        <v>29.030702942456628</v>
       </c>
       <c r="AS3">
-        <v>21.429832661467287</v>
+        <v>21.429799331467279</v>
       </c>
       <c r="AT3">
         <v>17.261843778721726</v>
       </c>
       <c r="AU3">
-        <v>27.191305639823725</v>
+        <v>27.191272309823717</v>
       </c>
       <c r="AV3">
-        <v>21.80485912421787</v>
+        <v>21.804825794217862</v>
       </c>
       <c r="AW3">
         <v>21.194617871908463</v>
       </c>
       <c r="AX3">
-        <v>20.643621850864662</v>
+        <v>24.816921850864674</v>
       </c>
       <c r="AY3">
-        <v>21.004178064382074</v>
+        <v>63.424144734382082</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.1536264287975087</v>
+        <v>19.728150183659977</v>
       </c>
       <c r="C2">
-        <v>25.173716666113705</v>
+        <v>16.007746957883001</v>
       </c>
       <c r="D2">
-        <v>-4.9598987725529753</v>
+        <v>20.960686545905105</v>
       </c>
       <c r="E2">
-        <v>16.175655989555224</v>
+        <v>21.215777319479969</v>
       </c>
       <c r="F2">
         <v>-37.186294329435498</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.345231093523694</v>
+        <v>13.487990892805044</v>
       </c>
       <c r="C3">
-        <v>27.737755070341279</v>
+        <v>19.769449068787594</v>
       </c>
       <c r="D3">
-        <v>29.301007672935128</v>
+        <v>12.616243149296679</v>
       </c>
       <c r="E3">
-        <v>15.596063286020268</v>
+        <v>23.627083121938881</v>
       </c>
       <c r="F3">
         <v>9.4304539646855972</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.1536264287975087</v>
+        <v>6.3809148806020062</v>
       </c>
       <c r="C2">
-        <v>25.173716666113705</v>
+        <v>19.728150183659977</v>
       </c>
       <c r="D2">
-        <v>-4.9598987725529753</v>
+        <v>24.83822801726069</v>
       </c>
       <c r="E2">
-        <v>16.175655989555224</v>
+        <v>20.960686545905105</v>
       </c>
       <c r="F2">
         <v>-37.186294329435498</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.345231093523694</v>
+        <v>6.6068281638017652</v>
       </c>
       <c r="C3">
-        <v>27.737755070341279</v>
+        <v>13.487990892805044</v>
       </c>
       <c r="D3">
-        <v>29.301007672935128</v>
+        <v>35.254613927622245</v>
       </c>
       <c r="E3">
-        <v>15.596063286020268</v>
+        <v>12.616243149296679</v>
       </c>
       <c r="F3">
         <v>9.4304539646855972</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6.153626385744758</v>
+      </c>
+      <c r="C2">
+        <v>25.173716662398078</v>
+      </c>
+      <c r="D2">
+        <v>-4.9598988049877164</v>
+      </c>
+      <c r="E2">
+        <v>16.175655968080861</v>
+      </c>
+      <c r="F2">
+        <v>-37.186294337181124</v>
+      </c>
+      <c r="G2">
+        <v>27.760458448404279</v>
+      </c>
+      <c r="H2">
+        <v>14.588591957632048</v>
+      </c>
+      <c r="I2">
+        <v>22.729429128398294</v>
+      </c>
+      <c r="J2">
+        <v>24.930718681960457</v>
+      </c>
+      <c r="K2">
+        <v>40.962421292759444</v>
+      </c>
+      <c r="L2">
+        <v>27.765166058345329</v>
+      </c>
+      <c r="M2">
+        <v>16.458244077533436</v>
+      </c>
+      <c r="N2">
         <v>6.3809148806020062</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>19.728150183659977</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.472320505517644</v>
+      </c>
+      <c r="Q2">
+        <v>53.748547497009383</v>
+      </c>
+      <c r="R2">
+        <v>16.007746957883001</v>
+      </c>
+      <c r="S2">
+        <v>22.210531742145406</v>
+      </c>
+      <c r="T2">
+        <v>24.346895046923464</v>
+      </c>
+      <c r="U2">
+        <v>34.813362125656681</v>
+      </c>
+      <c r="V2">
+        <v>17.994621265781234</v>
+      </c>
+      <c r="W2">
+        <v>18.648723082016261</v>
+      </c>
+      <c r="X2">
+        <v>26.594086760482099</v>
+      </c>
+      <c r="Y2">
+        <v>23.420796380749664</v>
+      </c>
+      <c r="Z2">
+        <v>-1.2874345919665018</v>
+      </c>
+      <c r="AA2">
+        <v>32.102528387411212</v>
+      </c>
+      <c r="AB2">
+        <v>12.053447257339258</v>
+      </c>
+      <c r="AC2">
+        <v>22.172669492196661</v>
+      </c>
+      <c r="AD2">
+        <v>14.231024476361682</v>
+      </c>
+      <c r="AE2">
+        <v>-2.6277270436658284</v>
+      </c>
+      <c r="AF2">
+        <v>22.746073478016285</v>
+      </c>
+      <c r="AG2">
+        <v>20.185154184259375</v>
+      </c>
+      <c r="AH2">
+        <v>19.121732283333984</v>
+      </c>
+      <c r="AI2">
+        <v>35.628930132382152</v>
+      </c>
+      <c r="AJ2">
+        <v>16.942675933463619</v>
+      </c>
+      <c r="AK2">
+        <v>22.260694431845081</v>
+      </c>
+      <c r="AL2">
+        <v>26.12851228680438</v>
+      </c>
+      <c r="AM2">
         <v>24.83822801726069</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>20.960686545905105</v>
       </c>
-      <c r="F2">
-        <v>-37.186294329435498</v>
-      </c>
-      <c r="G2">
-        <v>27.760458455099922</v>
-      </c>
-      <c r="H2">
-        <v>14.58859198461451</v>
-      </c>
-      <c r="I2">
-        <v>22.729429141161859</v>
-      </c>
-      <c r="J2">
-        <v>24.930718706332954</v>
-      </c>
-      <c r="K2">
-        <v>40.962421301684316</v>
-      </c>
-      <c r="L2">
-        <v>27.765166084644221</v>
-      </c>
-      <c r="M2">
-        <v>16.458244115529965</v>
-      </c>
-      <c r="N2">
-        <v>6.3809149213299179</v>
-      </c>
-      <c r="O2">
-        <v>19.728150206785017</v>
-      </c>
-      <c r="P2">
-        <v>14.472320523479652</v>
-      </c>
-      <c r="Q2">
-        <v>53.748547503791485</v>
-      </c>
-      <c r="R2">
-        <v>16.007746965512581</v>
-      </c>
-      <c r="S2">
-        <v>22.21053175644397</v>
-      </c>
-      <c r="T2">
-        <v>24.346895093986461</v>
-      </c>
-      <c r="U2">
-        <v>34.813362139952034</v>
-      </c>
-      <c r="V2">
-        <v>17.994621288853239</v>
-      </c>
-      <c r="W2">
-        <v>18.648723101847736</v>
-      </c>
-      <c r="X2">
-        <v>26.594086778697402</v>
-      </c>
-      <c r="Y2">
-        <v>23.420796420024004</v>
-      </c>
-      <c r="Z2">
-        <v>-1.2874345676293046</v>
-      </c>
-      <c r="AA2">
-        <v>32.102528412354047</v>
-      </c>
-      <c r="AB2">
-        <v>12.053447272594042</v>
-      </c>
-      <c r="AC2">
-        <v>22.172669500017008</v>
-      </c>
-      <c r="AD2">
-        <v>14.231024484989149</v>
-      </c>
-      <c r="AE2">
-        <v>-2.627727030802788</v>
-      </c>
-      <c r="AF2">
-        <v>22.746073482065583</v>
-      </c>
-      <c r="AG2">
-        <v>20.18515420823627</v>
-      </c>
-      <c r="AH2">
-        <v>19.121732291279102</v>
-      </c>
-      <c r="AI2">
-        <v>35.628930155360081</v>
-      </c>
-      <c r="AJ2">
-        <v>16.942675933597343</v>
-      </c>
-      <c r="AK2">
-        <v>22.260694450980878</v>
-      </c>
-      <c r="AL2">
-        <v>26.128512310349208</v>
-      </c>
-      <c r="AM2">
-        <v>24.838228048307371</v>
-      </c>
-      <c r="AN2">
-        <v>20.96068656774068</v>
-      </c>
       <c r="AO2">
-        <v>23.566803908131362</v>
+        <v>23.566803905634288</v>
       </c>
       <c r="AP2">
-        <v>26.113048387812171</v>
+        <v>26.113048373067841</v>
       </c>
       <c r="AQ2">
-        <v>21.215777341030901</v>
+        <v>21.215777319479969</v>
       </c>
       <c r="AR2">
-        <v>27.197233178307215</v>
+        <v>27.197233178440058</v>
       </c>
       <c r="AS2">
-        <v>28.417721698469165</v>
+        <v>28.417721692050804</v>
       </c>
       <c r="AT2">
-        <v>25.38604397002706</v>
+        <v>25.386043954524524</v>
       </c>
       <c r="AU2">
-        <v>23.80141231673548</v>
+        <v>23.801412309148077</v>
       </c>
       <c r="AV2">
-        <v>10.989444760072445</v>
+        <v>10.989444734720564</v>
       </c>
       <c r="AW2">
-        <v>23.348168789874705</v>
+        <v>23.348168784232143</v>
       </c>
       <c r="AX2">
-        <v>22.096917960153974</v>
+        <v>22.096917944978571</v>
       </c>
       <c r="AY2">
-        <v>28.446118398219994</v>
+        <v>28.446118383227031</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.345231066755957</v>
+      </c>
+      <c r="C3">
+        <v>27.737755041051003</v>
+      </c>
+      <c r="D3">
+        <v>29.30100763185618</v>
+      </c>
+      <c r="E3">
+        <v>15.596063250264109</v>
+      </c>
+      <c r="F3">
+        <v>9.4304539594229766</v>
+      </c>
+      <c r="G3">
+        <v>23.309953638814108</v>
+      </c>
+      <c r="H3">
+        <v>22.262895460794709</v>
+      </c>
+      <c r="I3">
+        <v>24.329515536317786</v>
+      </c>
+      <c r="J3">
+        <v>36.832938414392771</v>
+      </c>
+      <c r="K3">
+        <v>26.833556774244329</v>
+      </c>
+      <c r="L3">
+        <v>52.902946240601807</v>
+      </c>
+      <c r="M3">
+        <v>17.703274050979928</v>
+      </c>
+      <c r="N3">
         <v>6.6068281638017652</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>13.487990892805044</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>25.383715011781192</v>
+      </c>
+      <c r="Q3">
+        <v>15.880705900337205</v>
+      </c>
+      <c r="R3">
+        <v>19.769449068787594</v>
+      </c>
+      <c r="S3">
+        <v>20.103055783213676</v>
+      </c>
+      <c r="T3">
+        <v>22.797686180236269</v>
+      </c>
+      <c r="U3">
+        <v>19.583150824718501</v>
+      </c>
+      <c r="V3">
+        <v>40.047687815283723</v>
+      </c>
+      <c r="W3">
+        <v>20.490484502736336</v>
+      </c>
+      <c r="X3">
+        <v>19.90817911960869</v>
+      </c>
+      <c r="Y3">
+        <v>43.527557166850045</v>
+      </c>
+      <c r="Z3">
+        <v>23.036705961211396</v>
+      </c>
+      <c r="AA3">
+        <v>27.386284486048453</v>
+      </c>
+      <c r="AB3">
+        <v>19.331264115896886</v>
+      </c>
+      <c r="AC3">
+        <v>28.503560651789115</v>
+      </c>
+      <c r="AD3">
+        <v>18.346807284562431</v>
+      </c>
+      <c r="AE3">
+        <v>23.080969829106579</v>
+      </c>
+      <c r="AF3">
+        <v>26.702177038481153</v>
+      </c>
+      <c r="AG3">
+        <v>29.281386351236989</v>
+      </c>
+      <c r="AH3">
+        <v>33.53850757545041</v>
+      </c>
+      <c r="AI3">
+        <v>27.366063475249319</v>
+      </c>
+      <c r="AJ3">
+        <v>30.541568271886717</v>
+      </c>
+      <c r="AK3">
+        <v>45.428133612903991</v>
+      </c>
+      <c r="AL3">
+        <v>30.575655277162639</v>
+      </c>
+      <c r="AM3">
         <v>35.254613927622245</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>12.616243149296679</v>
       </c>
-      <c r="F3">
-        <v>9.4304539646855972</v>
-      </c>
-      <c r="G3">
-        <v>23.309953662220806</v>
-      </c>
-      <c r="H3">
-        <v>22.262895495064754</v>
-      </c>
-      <c r="I3">
-        <v>24.329515543567311</v>
-      </c>
-      <c r="J3">
-        <v>36.832938434529979</v>
-      </c>
-      <c r="K3">
-        <v>26.833556802124804</v>
-      </c>
-      <c r="L3">
-        <v>52.902946267441394</v>
-      </c>
-      <c r="M3">
-        <v>17.703188480475433</v>
-      </c>
-      <c r="N3">
-        <v>6.6068281931400179</v>
-      </c>
-      <c r="O3">
-        <v>13.487990908829971</v>
-      </c>
-      <c r="P3">
-        <v>25.383715036167644</v>
-      </c>
-      <c r="Q3">
-        <v>15.880705920689479</v>
-      </c>
-      <c r="R3">
-        <v>19.769449084165785</v>
-      </c>
-      <c r="S3">
-        <v>20.10305579720756</v>
-      </c>
-      <c r="T3">
-        <v>22.797686201633383</v>
-      </c>
-      <c r="U3">
-        <v>19.583150857039271</v>
-      </c>
-      <c r="V3">
-        <v>40.047687836154182</v>
-      </c>
-      <c r="W3">
-        <v>20.490484522787284</v>
-      </c>
-      <c r="X3">
-        <v>19.908179130884605</v>
-      </c>
-      <c r="Y3">
-        <v>43.52755717983058</v>
-      </c>
-      <c r="Z3">
-        <v>23.036705980039244</v>
-      </c>
-      <c r="AA3">
-        <v>27.386284505387209</v>
-      </c>
-      <c r="AB3">
-        <v>19.331264139179495</v>
-      </c>
-      <c r="AC3">
-        <v>28.503560669089978</v>
-      </c>
-      <c r="AD3">
-        <v>18.34680729433569</v>
-      </c>
-      <c r="AE3">
-        <v>23.08096983354514</v>
-      </c>
-      <c r="AF3">
-        <v>26.702177054926636</v>
-      </c>
-      <c r="AG3">
-        <v>29.281386372342126</v>
-      </c>
-      <c r="AH3">
-        <v>33.538507585921423</v>
-      </c>
-      <c r="AI3">
-        <v>27.366063494721374</v>
-      </c>
-      <c r="AJ3">
-        <v>30.541568308505873</v>
-      </c>
-      <c r="AK3">
-        <v>45.428133637408848</v>
-      </c>
-      <c r="AL3">
-        <v>30.57565529815713</v>
-      </c>
-      <c r="AM3">
-        <v>35.254613966400143</v>
-      </c>
-      <c r="AN3">
-        <v>12.616243159439705</v>
-      </c>
       <c r="AO3">
-        <v>28.170311611741397</v>
+        <v>28.170311575696701</v>
       </c>
       <c r="AP3">
-        <v>22.088629399319643</v>
+        <v>22.088629383547755</v>
       </c>
       <c r="AQ3">
-        <v>23.62708312792887</v>
+        <v>23.627083121938881</v>
       </c>
       <c r="AR3">
-        <v>29.030702956267589</v>
+        <v>29.030702942456628</v>
       </c>
       <c r="AS3">
-        <v>21.429799348506492</v>
+        <v>21.429799331467279</v>
       </c>
       <c r="AT3">
-        <v>17.261843786864972</v>
+        <v>17.261843778721726</v>
       </c>
       <c r="AU3">
-        <v>27.191272336368286</v>
+        <v>27.191272309823717</v>
       </c>
       <c r="AV3">
-        <v>21.80482581868128</v>
+        <v>21.804825794217862</v>
       </c>
       <c r="AW3">
-        <v>21.19461788391277</v>
+        <v>21.194617871908463</v>
       </c>
       <c r="AX3">
-        <v>24.816921871756279</v>
+        <v>24.816921850864674</v>
       </c>
       <c r="AY3">
-        <v>63.424144756835005</v>
+        <v>63.424144734382082</v>
       </c>
     </row>
   </sheetData>
